--- a/MAP/abcnorio-33.xlsx
+++ b/MAP/abcnorio-33.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1400" yWindow="1620" windowWidth="24500" windowHeight="15540" tabRatio="500"/>
+    <workbookView xWindow="1100" yWindow="460" windowWidth="24500" windowHeight="15540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="597" uniqueCount="319">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="611" uniqueCount="312">
   <si>
     <t>Title</t>
   </si>
@@ -107,47 +107,19 @@
     <t>image online</t>
   </si>
   <si>
-    <t>\</t>
-  </si>
-  <si>
-    <t xml:space="preserve">premiere  issue </t>
-  </si>
-  <si>
     <t>Duplicate</t>
   </si>
   <si>
-    <t>Guerrilla Girls</t>
-  </si>
-  <si>
-    <t>b/w, photocopied, stapled</t>
-  </si>
-  <si>
     <t>Infrequently</t>
   </si>
   <si>
-    <t xml:space="preserve">sticks and stones
-</t>
-  </si>
-  <si>
     <t>English</t>
   </si>
   <si>
-    <t>Collection of work by female artists</t>
-  </si>
-  <si>
     <t>Main (zines, indy mags, comix, mewspapers, guides, lists)</t>
   </si>
   <si>
     <t>May</t>
-  </si>
-  <si>
-    <t>Houston, Tx</t>
-  </si>
-  <si>
-    <t>Guerilla Girls</t>
-  </si>
-  <si>
-    <t>half-sized</t>
   </si>
   <si>
     <t>Zine</t>
@@ -989,13 +961,19 @@
   </si>
   <si>
     <t>http://abcnorio.org/facilities/zine_library.html</t>
+  </si>
+  <si>
+    <t>Collection</t>
+  </si>
+  <si>
+    <t>ABC No Rio</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1007,6 +985,29 @@
       <b/>
       <sz val="10"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1026,10 +1027,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -1040,8 +1049,19 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="9">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1317,10 +1337,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA34"/>
+  <dimension ref="A1:AB33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J33" workbookViewId="0">
-      <selection activeCell="AA2" sqref="AA2:AA34"/>
+    <sheetView tabSelected="1" topLeftCell="L33" workbookViewId="0">
+      <selection activeCell="AA44" sqref="AA44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1328,7 +1348,7 @@
     <col min="1" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="39" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:28" ht="39" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1408,489 +1428,501 @@
         <v>25</v>
       </c>
       <c r="AA1" s="2" t="s">
-        <v>317</v>
+        <v>308</v>
+      </c>
+      <c r="AB1" s="2" t="s">
+        <v>310</v>
       </c>
     </row>
-    <row r="2" spans="1:27" ht="96" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:28" ht="224" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>35</v>
+      </c>
       <c r="C2" s="3" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="D2" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="J2" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="E2" s="2">
-        <v>14</v>
-      </c>
-      <c r="F2" s="3" t="s">
+      <c r="L2" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="M2" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="H2" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="J2" s="3" t="s">
+      <c r="N2" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="S2" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="T2" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="L2" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="N2" s="3" t="s">
+      <c r="V2" s="2">
+        <v>1995</v>
+      </c>
+      <c r="X2" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z2" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="O2" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="P2" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q2" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="R2" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="S2" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="T2" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="U2" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="V2" s="2">
-        <v>1993</v>
-      </c>
-      <c r="X2" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="Z2" s="3" t="s">
-        <v>43</v>
-      </c>
       <c r="AA2" s="2" t="s">
-        <v>318</v>
+        <v>309</v>
+      </c>
+      <c r="AB2" s="2" t="s">
+        <v>311</v>
       </c>
     </row>
-    <row r="3" spans="1:27" ht="224" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:28" ht="192" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>44</v>
+        <v>46</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>47</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="H3" s="3" t="s">
         <v>47</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="J3" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q3" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="S3" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="U3" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="X3" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z3" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="AA3" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="AB3" s="2" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28" ht="352" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q4" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="S4" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="T4" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="L3" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="M3" s="3" t="s">
+      <c r="U4" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="V4" s="2">
+        <v>1991</v>
+      </c>
+      <c r="X4" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z4" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="AA4" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="AB4" s="2" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28" ht="288" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E5" s="2">
+        <v>24</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G5" s="2">
+        <v>2</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="O5" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="P5" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q5" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="R5" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="S5" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="T5" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="U5" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="V5" s="2">
+        <v>1990</v>
+      </c>
+      <c r="X5" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="Z5" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="AA5" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="AB5" s="2" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28" ht="112" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="M6" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="N6" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="O6" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="P6" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q6" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="S6" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="T6" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="U6" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="V6" s="2">
+        <v>1992</v>
+      </c>
+      <c r="X6" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="N3" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="P3" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q3" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="S3" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="T3" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="V3" s="2">
-        <v>1995</v>
-      </c>
-      <c r="X3" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="Z3" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="AA3" s="2" t="s">
-        <v>318</v>
+      <c r="Z6" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="AA6" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="AB6" s="2" t="s">
+        <v>311</v>
       </c>
     </row>
-    <row r="4" spans="1:27" ht="192" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="L4" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="M4" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="N4" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q4" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="S4" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="U4" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="X4" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="Z4" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="AA4" s="2" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="5" spans="1:27" ht="352" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="M5" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="N5" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q5" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="S5" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="T5" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="U5" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="V5" s="2">
-        <v>1991</v>
-      </c>
-      <c r="X5" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="Z5" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="AA5" s="2" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="6" spans="1:27" ht="288" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="E6" s="2">
-        <v>24</v>
-      </c>
-      <c r="F6" s="3" t="s">
+    <row r="7" spans="1:28" ht="288" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="M7" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="G6" s="2">
-        <v>2</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="L6" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="M6" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="N6" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="O6" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="P6" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="Q6" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="R6" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="S6" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="T6" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="U6" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="V6" s="2">
-        <v>1990</v>
-      </c>
-      <c r="X6" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="Z6" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="AA6" s="2" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="7" spans="1:27" ht="112" x14ac:dyDescent="0.2">
-      <c r="A7" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="I7" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="J7" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="L7" s="3" t="s">
+      <c r="N7" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="M7" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="N7" s="3" t="s">
+      <c r="O7" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="P7" s="3" t="s">
         <v>90</v>
-      </c>
-      <c r="O7" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="P7" s="3" t="s">
-        <v>51</v>
       </c>
       <c r="Q7" s="3" t="s">
         <v>91</v>
       </c>
       <c r="S7" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="T7" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="U7" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="U7" s="3" t="s">
+      <c r="V7" s="2">
+        <v>1988</v>
+      </c>
+      <c r="X7" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z7" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="AA7" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="AB7" s="2" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28" ht="409" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="V7" s="2">
-        <v>1992</v>
-      </c>
-      <c r="X7" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="Z7" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="AA7" s="2" t="s">
-        <v>318</v>
+      <c r="C8" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="N8" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="O8" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="P8" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q8" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="S8" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="T8" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="U8" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="V8" s="2">
+        <v>1991</v>
+      </c>
+      <c r="X8" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z8" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="AA8" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="AB8" s="2" t="s">
+        <v>311</v>
       </c>
     </row>
-    <row r="8" spans="1:27" ht="288" x14ac:dyDescent="0.2">
-      <c r="A8" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="J8" s="3" t="s">
+    <row r="9" spans="1:28" ht="409" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G9" s="2">
+        <v>2</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="L9" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="N9" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q9" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="R9" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="S9" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="T9" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="M8" s="3" t="s">
+      <c r="X9" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="N8" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="O8" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="P8" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="Q8" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="S8" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="U8" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="V8" s="2">
-        <v>1988</v>
-      </c>
-      <c r="X8" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="Z8" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="AA8" s="2" t="s">
-        <v>318</v>
+      <c r="Z9" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="AA9" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="AB9" s="2" t="s">
+        <v>311</v>
       </c>
     </row>
-    <row r="9" spans="1:27" ht="409" x14ac:dyDescent="0.2">
-      <c r="A9" s="3" t="s">
+    <row r="10" spans="1:28" ht="96" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="L9" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="M9" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="N9" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="O9" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="P9" s="3" t="s">
+      <c r="D10" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="J10" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="Q9" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="S9" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="T9" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="U9" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="V9" s="2">
-        <v>1991</v>
-      </c>
-      <c r="X9" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="Z9" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="AA9" s="2" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="10" spans="1:27" ht="409" x14ac:dyDescent="0.2">
-      <c r="A10" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="G10" s="2">
-        <v>2</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="I10" s="3" t="s">
+      <c r="L10" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="J10" s="3" t="s">
+      <c r="M10" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="L10" s="3" t="s">
+      <c r="N10" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="M10" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="N10" s="3" t="s">
+      <c r="O10" s="3" t="s">
         <v>116</v>
       </c>
       <c r="Q10" s="3" t="s">
@@ -1900,193 +1932,220 @@
         <v>118</v>
       </c>
       <c r="S10" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="T10" s="3" t="s">
-        <v>40</v>
+        <v>119</v>
+      </c>
+      <c r="U10" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="V10" s="2">
+        <v>1995</v>
       </c>
       <c r="X10" s="3" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="Z10" s="3" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="AA10" s="2" t="s">
-        <v>318</v>
+        <v>309</v>
+      </c>
+      <c r="AB10" s="2" t="s">
+        <v>311</v>
       </c>
     </row>
-    <row r="11" spans="1:27" ht="96" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:28" ht="96" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>119</v>
+        <v>121</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>122</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>111</v>
+        <v>123</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>120</v>
+        <v>124</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>125</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>88</v>
+        <v>127</v>
       </c>
       <c r="L11" s="3" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="M11" s="3" t="s">
-        <v>123</v>
+        <v>28</v>
       </c>
       <c r="N11" s="3" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="O11" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q11" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="R11" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="Q11" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="R11" s="3" t="s">
-        <v>127</v>
-      </c>
       <c r="S11" s="3" t="s">
-        <v>128</v>
+        <v>44</v>
+      </c>
+      <c r="T11" s="3" t="s">
+        <v>31</v>
       </c>
       <c r="U11" s="3" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="V11" s="2">
-        <v>1995</v>
+        <v>1996</v>
       </c>
       <c r="X11" s="3" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="Z11" s="3" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="AA11" s="2" t="s">
-        <v>318</v>
+        <v>309</v>
+      </c>
+      <c r="AB11" s="2" t="s">
+        <v>311</v>
       </c>
     </row>
-    <row r="12" spans="1:27" ht="96" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:28" ht="409" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="H12" s="3" t="s">
         <v>134</v>
       </c>
       <c r="I12" s="3" t="s">
         <v>135</v>
       </c>
       <c r="J12" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="L12" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="L12" s="3" t="s">
+      <c r="M12" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="N12" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="M12" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="N12" s="3" t="s">
+      <c r="O12" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="P12" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q12" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="O12" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q12" s="3" t="s">
+      <c r="S12" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="T12" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="U12" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="R12" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="S12" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="T12" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="U12" s="3" t="s">
+      <c r="V12" s="2">
+        <v>1992</v>
+      </c>
+      <c r="X12" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z12" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="AA12" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="AB12" s="2" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" ht="144" x14ac:dyDescent="0.2">
+      <c r="A13" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="V12" s="2">
-        <v>1996</v>
-      </c>
-      <c r="X12" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="Z12" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="AA12" s="2" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="13" spans="1:27" ht="409" x14ac:dyDescent="0.2">
-      <c r="A13" s="3" t="s">
+      <c r="B13" s="3" t="s">
         <v>141</v>
       </c>
       <c r="C13" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D13" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="F13" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="I13" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="I13" s="3" t="s">
+      <c r="J13" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="L13" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="J13" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="L13" s="3" t="s">
+      <c r="M13" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="N13" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="M13" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="N13" s="3" t="s">
+      <c r="O13" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="P13" s="3" t="s">
         <v>146</v>
-      </c>
-      <c r="O13" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="P13" s="3" t="s">
-        <v>36</v>
       </c>
       <c r="Q13" s="3" t="s">
         <v>147</v>
       </c>
+      <c r="R13" s="3" t="s">
+        <v>141</v>
+      </c>
       <c r="S13" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="T13" s="3" t="s">
-        <v>81</v>
+        <v>44</v>
       </c>
       <c r="U13" s="3" t="s">
         <v>148</v>
       </c>
       <c r="V13" s="2">
-        <v>1992</v>
+        <v>1994</v>
       </c>
       <c r="X13" s="3" t="s">
-        <v>54</v>
+        <v>33</v>
       </c>
       <c r="Z13" s="3" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="AA13" s="2" t="s">
-        <v>318</v>
+        <v>309</v>
+      </c>
+      <c r="AB13" s="2" t="s">
+        <v>311</v>
       </c>
     </row>
-    <row r="14" spans="1:27" ht="144" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:28" ht="409" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>149</v>
       </c>
@@ -2094,214 +2153,214 @@
         <v>150</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>57</v>
+        <v>151</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="F14" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="M14" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="H14" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="L14" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="M14" s="3" t="s">
-        <v>33</v>
-      </c>
       <c r="N14" s="3" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="O14" s="3" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="P14" s="3" t="s">
-        <v>155</v>
+        <v>70</v>
       </c>
       <c r="Q14" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="R14" s="3" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="S14" s="3" t="s">
-        <v>53</v>
+        <v>44</v>
+      </c>
+      <c r="T14" s="3" t="s">
+        <v>72</v>
       </c>
       <c r="U14" s="3" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="V14" s="2">
-        <v>1994</v>
+        <v>1989</v>
       </c>
       <c r="X14" s="3" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="Z14" s="3" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="AA14" s="2" t="s">
-        <v>318</v>
+        <v>309</v>
+      </c>
+      <c r="AB14" s="2" t="s">
+        <v>311</v>
       </c>
     </row>
-    <row r="15" spans="1:27" ht="409" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:28" ht="409" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="B15" s="3" t="s">
         <v>159</v>
       </c>
       <c r="C15" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D15" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="I15" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="H15" s="3" t="s">
+      <c r="J15" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="L15" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="I15" s="3" t="s">
+      <c r="M15" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="N15" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="J15" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="L15" s="3" t="s">
+      <c r="O15" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="P15" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="M15" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="N15" s="3" t="s">
+      <c r="Q15" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="O15" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="P15" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="Q15" s="3" t="s">
+      <c r="S15" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="T15" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="U15" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="S15" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="T15" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="U15" s="3" t="s">
+      <c r="V15" s="2">
+        <v>1999</v>
+      </c>
+      <c r="X15" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="Z15" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="AA15" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="AB15" s="2" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" ht="409" x14ac:dyDescent="0.2">
+      <c r="A16" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="V15" s="2">
-        <v>1989</v>
-      </c>
-      <c r="X15" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="Z15" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="AA15" s="2" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="16" spans="1:27" ht="409" x14ac:dyDescent="0.2">
-      <c r="A16" s="3" t="s">
+      <c r="B16" s="3" t="s">
         <v>168</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>169</v>
       </c>
+      <c r="H16" s="3" t="s">
+        <v>168</v>
+      </c>
       <c r="I16" s="3" t="s">
         <v>170</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>136</v>
+        <v>27</v>
       </c>
       <c r="L16" s="3" t="s">
         <v>171</v>
       </c>
       <c r="M16" s="3" t="s">
-        <v>33</v>
+        <v>172</v>
       </c>
       <c r="N16" s="3" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="O16" s="3" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="P16" s="3" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q16" s="3" t="s">
-        <v>174</v>
+        <v>175</v>
+      </c>
+      <c r="R16" s="3" t="s">
+        <v>168</v>
       </c>
       <c r="S16" s="3" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="T16" s="3" t="s">
-        <v>81</v>
+        <v>31</v>
       </c>
       <c r="U16" s="3" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="V16" s="2">
-        <v>1999</v>
+        <v>1996</v>
       </c>
       <c r="X16" s="3" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="Z16" s="3" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="AA16" s="2" t="s">
-        <v>318</v>
+        <v>309</v>
+      </c>
+      <c r="AB16" s="2" t="s">
+        <v>311</v>
       </c>
     </row>
-    <row r="17" spans="1:27" ht="409" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:28" ht="409" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="B17" s="3" t="s">
         <v>177</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>64</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="H17" s="3" t="s">
-        <v>177</v>
-      </c>
       <c r="I17" s="3" t="s">
         <v>179</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>31</v>
+        <v>180</v>
       </c>
       <c r="L17" s="3" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="M17" s="3" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="N17" s="3" t="s">
         <v>182</v>
       </c>
       <c r="O17" s="3" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="P17" s="3" t="s">
         <v>183</v>
@@ -2310,184 +2369,196 @@
         <v>184</v>
       </c>
       <c r="R17" s="3" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="S17" s="3" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="T17" s="3" t="s">
-        <v>40</v>
+        <v>72</v>
       </c>
       <c r="U17" s="3" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="V17" s="2">
-        <v>1996</v>
+        <v>1986</v>
       </c>
       <c r="X17" s="3" t="s">
-        <v>83</v>
+        <v>45</v>
       </c>
       <c r="Z17" s="3" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="AA17" s="2" t="s">
-        <v>318</v>
+        <v>309</v>
+      </c>
+      <c r="AB17" s="2" t="s">
+        <v>311</v>
       </c>
     </row>
-    <row r="18" spans="1:27" ht="409" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:28" ht="304" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
-        <v>186</v>
+        <v>187</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>94</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>189</v>
+        <v>27</v>
       </c>
       <c r="L18" s="3" t="s">
         <v>190</v>
       </c>
       <c r="M18" s="3" t="s">
-        <v>181</v>
+        <v>28</v>
       </c>
       <c r="N18" s="3" t="s">
         <v>191</v>
       </c>
       <c r="O18" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="P18" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q18" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="Q18" s="3" t="s">
+      <c r="S18" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="T18" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="U18" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="R18" s="3" t="s">
+      <c r="X18" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z18" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="AA18" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="AB18" s="2" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="19" spans="1:28" ht="409" x14ac:dyDescent="0.2">
+      <c r="A19" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="S18" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="T18" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="U18" s="3" t="s">
+      <c r="C19" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="V18" s="2">
-        <v>1986</v>
-      </c>
-      <c r="X18" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="Z18" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="AA18" s="2" t="s">
-        <v>318</v>
+      <c r="D19" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="J19" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="L19" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="M19" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="N19" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="O19" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="S19" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="T19" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="V19" s="2">
+        <v>1995</v>
+      </c>
+      <c r="X19" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z19" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="AA19" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="AB19" s="2" t="s">
+        <v>311</v>
       </c>
     </row>
-    <row r="19" spans="1:27" ht="304" x14ac:dyDescent="0.2">
-      <c r="A19" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="I19" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="J19" s="3" t="s">
+    <row r="20" spans="1:28" ht="192" x14ac:dyDescent="0.2">
+      <c r="A20" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="L20" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="M20" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="N20" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="P20" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q20" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="S20" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="T20" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="L19" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="M19" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="N19" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="O19" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q19" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="S19" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="T19" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="U19" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="X19" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="Z19" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="AA19" s="2" t="s">
-        <v>318</v>
+      <c r="U20" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="V20" s="2">
+        <v>1992</v>
+      </c>
+      <c r="X20" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="Z20" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="AA20" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="AB20" s="2" t="s">
+        <v>311</v>
       </c>
     </row>
-    <row r="20" spans="1:27" ht="409" x14ac:dyDescent="0.2">
-      <c r="A20" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="I20" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="J20" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="L20" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="M20" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="N20" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="O20" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="S20" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="T20" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="V20" s="2">
-        <v>1995</v>
-      </c>
-      <c r="X20" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="Z20" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="AA20" s="2" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="21" spans="1:27" ht="192" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:28" ht="409" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
         <v>209</v>
       </c>
@@ -2497,54 +2568,63 @@
       <c r="D21" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="H21" s="3" t="s">
+      <c r="I21" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="L21" s="3" t="s">
         <v>212</v>
       </c>
-      <c r="I21" s="3" t="s">
+      <c r="M21" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="N21" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="J21" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="L21" s="3" t="s">
+      <c r="O21" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="P21" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="Q21" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="M21" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="N21" s="3" t="s">
+      <c r="R21" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="P21" s="3" t="s">
+      <c r="S21" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="T21" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="U21" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="Q21" s="3" t="s">
+      <c r="V21" s="2">
+        <v>1990</v>
+      </c>
+      <c r="X21" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z21" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="AA21" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="AB21" s="2" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="22" spans="1:28" ht="409" x14ac:dyDescent="0.2">
+      <c r="A22" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="S21" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="T21" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="U21" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="V21" s="2">
-        <v>1992</v>
-      </c>
-      <c r="X21" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="Z21" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="AA21" s="2" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="22" spans="1:27" ht="409" x14ac:dyDescent="0.2">
-      <c r="A22" s="3" t="s">
+      <c r="B22" s="3" t="s">
         <v>218</v>
       </c>
       <c r="C22" s="3" t="s">
@@ -2553,56 +2633,53 @@
       <c r="D22" s="3" t="s">
         <v>220</v>
       </c>
+      <c r="H22" s="3" t="s">
+        <v>218</v>
+      </c>
       <c r="I22" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="J22" s="3" t="s">
-        <v>31</v>
+        <v>221</v>
       </c>
       <c r="L22" s="3" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="M22" s="3" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="N22" s="3" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="O22" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="P22" s="3" t="s">
-        <v>173</v>
+        <v>29</v>
       </c>
       <c r="Q22" s="3" t="s">
-        <v>223</v>
+        <v>108</v>
       </c>
       <c r="R22" s="3" t="s">
         <v>224</v>
       </c>
       <c r="S22" s="3" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="T22" s="3" t="s">
-        <v>81</v>
+        <v>31</v>
       </c>
       <c r="U22" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="V22" s="2">
-        <v>1990</v>
-      </c>
       <c r="X22" s="3" t="s">
-        <v>54</v>
+        <v>33</v>
       </c>
       <c r="Z22" s="3" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="AA22" s="2" t="s">
-        <v>318</v>
+        <v>309</v>
+      </c>
+      <c r="AB22" s="2" t="s">
+        <v>311</v>
       </c>
     </row>
-    <row r="23" spans="1:27" ht="409" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:28" ht="384" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
         <v>226</v>
       </c>
@@ -2625,430 +2702,460 @@
         <v>231</v>
       </c>
       <c r="M23" s="3" t="s">
-        <v>33</v>
+        <v>172</v>
       </c>
       <c r="N23" s="3" t="s">
         <v>232</v>
       </c>
       <c r="O23" s="3" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="Q23" s="3" t="s">
-        <v>117</v>
+        <v>233</v>
       </c>
       <c r="R23" s="3" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="S23" s="3" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="T23" s="3" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="U23" s="3" t="s">
-        <v>234</v>
+        <v>148</v>
       </c>
       <c r="X23" s="3" t="s">
-        <v>42</v>
+        <v>74</v>
       </c>
       <c r="Z23" s="3" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="AA23" s="2" t="s">
-        <v>318</v>
+        <v>309</v>
+      </c>
+      <c r="AB23" s="2" t="s">
+        <v>311</v>
       </c>
     </row>
-    <row r="24" spans="1:27" ht="384" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:28" ht="272" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
         <v>235</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>236</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="D24" s="3" t="s">
         <v>237</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>238</v>
       </c>
       <c r="H24" s="3" t="s">
         <v>236</v>
       </c>
       <c r="I24" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="L24" s="3" t="s">
         <v>239</v>
       </c>
-      <c r="L24" s="3" t="s">
+      <c r="M24" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="N24" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="M24" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="N24" s="3" t="s">
+      <c r="O24" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q24" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="R24" s="3" t="s">
         <v>241</v>
       </c>
-      <c r="O24" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q24" s="3" t="s">
+      <c r="S24" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="T24" s="3" t="s">
         <v>242</v>
       </c>
-      <c r="R24" s="3" t="s">
+      <c r="U24" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="X24" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z24" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="AA24" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="AB24" s="2" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="25" spans="1:28" ht="288" x14ac:dyDescent="0.2">
+      <c r="A25" s="3" t="s">
         <v>243</v>
       </c>
-      <c r="S24" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="T24" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="U24" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="X24" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="Z24" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="AA24" s="2" t="s">
-        <v>318</v>
+      <c r="B25" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="I25" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="J25" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="L25" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="M25" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="N25" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="O25" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="P25" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q25" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="R25" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="S25" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="T25" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="V25" s="2">
+        <v>1993</v>
+      </c>
+      <c r="X25" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z25" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="AA25" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="AB25" s="2" t="s">
+        <v>311</v>
       </c>
     </row>
-    <row r="25" spans="1:27" ht="272" x14ac:dyDescent="0.2">
-      <c r="A25" s="3" t="s">
-        <v>244</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>246</v>
-      </c>
-      <c r="H25" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="I25" s="3" t="s">
-        <v>247</v>
-      </c>
-      <c r="L25" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="M25" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="N25" s="3" t="s">
+    <row r="26" spans="1:28" ht="409" x14ac:dyDescent="0.2">
+      <c r="A26" s="3" t="s">
         <v>249</v>
       </c>
-      <c r="O25" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q25" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="R25" s="3" t="s">
+      <c r="C26" s="3" t="s">
         <v>250</v>
       </c>
-      <c r="S25" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="T25" s="3" t="s">
+      <c r="D26" s="3" t="s">
         <v>251</v>
-      </c>
-      <c r="U25" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="X25" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="Z25" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="AA25" s="2" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="26" spans="1:27" ht="288" x14ac:dyDescent="0.2">
-      <c r="A26" s="3" t="s">
-        <v>252</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>252</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>253</v>
       </c>
       <c r="H26" s="3" t="s">
         <v>252</v>
       </c>
       <c r="I26" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="J26" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="L26" s="3" t="s">
         <v>254</v>
       </c>
-      <c r="J26" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="L26" s="3" t="s">
+      <c r="M26" s="3" t="s">
         <v>255</v>
-      </c>
-      <c r="M26" s="3" t="s">
-        <v>33</v>
       </c>
       <c r="N26" s="3" t="s">
         <v>256</v>
       </c>
       <c r="O26" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="P26" s="3" t="s">
-        <v>216</v>
+        <v>29</v>
       </c>
       <c r="Q26" s="3" t="s">
         <v>257</v>
       </c>
       <c r="R26" s="3" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="S26" s="3" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="T26" s="3" t="s">
-        <v>40</v>
+        <v>72</v>
+      </c>
+      <c r="U26" s="3" t="s">
+        <v>60</v>
       </c>
       <c r="V26" s="2">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="X26" s="3" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="Z26" s="3" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="AA26" s="2" t="s">
-        <v>318</v>
+        <v>309</v>
+      </c>
+      <c r="AB26" s="2" t="s">
+        <v>311</v>
       </c>
     </row>
-    <row r="27" spans="1:27" ht="409" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:28" ht="256" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>259</v>
+        <v>102</v>
       </c>
       <c r="D27" s="3" t="s">
         <v>260</v>
       </c>
-      <c r="H27" s="3" t="s">
+      <c r="I27" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="J27" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="L27" s="3" t="s">
         <v>261</v>
       </c>
-      <c r="I27" s="3" t="s">
+      <c r="M27" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="N27" s="3" t="s">
         <v>262</v>
       </c>
-      <c r="J27" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="L27" s="3" t="s">
+      <c r="O27" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="P27" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q27" s="3" t="s">
         <v>263</v>
       </c>
-      <c r="M27" s="3" t="s">
-        <v>264</v>
-      </c>
-      <c r="N27" s="3" t="s">
-        <v>265</v>
-      </c>
-      <c r="O27" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q27" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="R27" s="3" t="s">
-        <v>267</v>
-      </c>
       <c r="S27" s="3" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="T27" s="3" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="U27" s="3" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="V27" s="2">
         <v>1992</v>
       </c>
       <c r="X27" s="3" t="s">
-        <v>54</v>
+        <v>74</v>
       </c>
       <c r="Z27" s="3" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="AA27" s="2" t="s">
-        <v>318</v>
+        <v>309</v>
+      </c>
+      <c r="AB27" s="2" t="s">
+        <v>311</v>
       </c>
     </row>
-    <row r="28" spans="1:27" ht="256" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:28" ht="409" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="I28" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="J28" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="L28" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="M28" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="N28" s="3" t="s">
         <v>268</v>
       </c>
-      <c r="C28" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="D28" s="3" t="s">
+      <c r="O28" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="S28" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="T28" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="X28" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="Z28" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="AA28" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="AB28" s="2" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="29" spans="1:28" ht="409" x14ac:dyDescent="0.2">
+      <c r="A29" s="3" t="s">
         <v>269</v>
       </c>
-      <c r="I28" s="3" t="s">
-        <v>262</v>
-      </c>
-      <c r="J28" s="3" t="s">
+      <c r="B29" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="I29" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="J29" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="L29" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="M29" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="N29" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="O29" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="P29" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q29" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="R29" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="S29" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="T29" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="L28" s="3" t="s">
-        <v>270</v>
-      </c>
-      <c r="M28" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="N28" s="3" t="s">
-        <v>271</v>
-      </c>
-      <c r="O28" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="P28" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q28" s="3" t="s">
-        <v>272</v>
-      </c>
-      <c r="S28" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="T28" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="U28" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="V28" s="2">
-        <v>1992</v>
-      </c>
-      <c r="X28" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="Z28" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="AA28" s="2" t="s">
-        <v>318</v>
+      <c r="U29" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="V29" s="2">
+        <v>1993</v>
+      </c>
+      <c r="Z29" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="AA29" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="AB29" s="2" t="s">
+        <v>311</v>
       </c>
     </row>
-    <row r="29" spans="1:27" ht="409" x14ac:dyDescent="0.2">
-      <c r="A29" s="3" t="s">
-        <v>273</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>274</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>275</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="L29" s="3" t="s">
+    <row r="30" spans="1:28" ht="272" x14ac:dyDescent="0.2">
+      <c r="A30" s="3" t="s">
         <v>276</v>
       </c>
-      <c r="M29" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="N29" s="3" t="s">
+      <c r="B30" s="3" t="s">
         <v>277</v>
       </c>
-      <c r="O29" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="S29" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="T29" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="X29" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="Z29" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="AA29" s="2" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="30" spans="1:27" ht="409" x14ac:dyDescent="0.2">
-      <c r="A30" s="3" t="s">
+      <c r="C30" s="3" t="s">
         <v>278</v>
       </c>
-      <c r="B30" s="3" t="s">
+      <c r="D30" s="3" t="s">
         <v>279</v>
       </c>
-      <c r="C30" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="D30" s="3" t="s">
+      <c r="E30" s="2">
+        <v>21</v>
+      </c>
+      <c r="H30" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="I30" s="3" t="s">
         <v>280</v>
       </c>
-      <c r="H30" s="3" t="s">
-        <v>279</v>
-      </c>
-      <c r="I30" s="3" t="s">
+      <c r="J30" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="L30" s="3" t="s">
         <v>281</v>
       </c>
-      <c r="J30" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="L30" s="3" t="s">
+      <c r="M30" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="N30" s="3" t="s">
         <v>282</v>
       </c>
-      <c r="M30" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="N30" s="3" t="s">
+      <c r="O30" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="P30" s="3" t="s">
         <v>283</v>
-      </c>
-      <c r="O30" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="P30" s="3" t="s">
-        <v>99</v>
       </c>
       <c r="Q30" s="3" t="s">
         <v>284</v>
       </c>
       <c r="R30" s="3" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="S30" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="T30" s="3" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="U30" s="3" t="s">
-        <v>41</v>
+        <v>285</v>
       </c>
       <c r="V30" s="2">
-        <v>1993</v>
+        <v>1992</v>
+      </c>
+      <c r="X30" s="3" t="s">
+        <v>45</v>
       </c>
       <c r="Z30" s="3" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="AA30" s="2" t="s">
-        <v>318</v>
+        <v>309</v>
+      </c>
+      <c r="AB30" s="2" t="s">
+        <v>311</v>
       </c>
     </row>
-    <row r="31" spans="1:27" ht="272" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:28" ht="409" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
-        <v>285</v>
-      </c>
-      <c r="B31" s="3" t="s">
         <v>286</v>
       </c>
       <c r="C31" s="3" t="s">
@@ -3057,227 +3164,174 @@
       <c r="D31" s="3" t="s">
         <v>288</v>
       </c>
-      <c r="E31" s="2">
-        <v>21</v>
+      <c r="F31" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G31" s="2">
+        <v>2</v>
       </c>
       <c r="H31" s="3" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="I31" s="3" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="J31" s="3" t="s">
-        <v>75</v>
+        <v>27</v>
       </c>
       <c r="L31" s="3" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="M31" s="3" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="N31" s="3" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="O31" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="P31" s="3" t="s">
-        <v>292</v>
+        <v>29</v>
       </c>
       <c r="Q31" s="3" t="s">
         <v>293</v>
       </c>
       <c r="R31" s="3" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="S31" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="U31" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="T31" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="V31" s="2">
+        <v>1998</v>
+      </c>
+      <c r="X31" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z31" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="AA31" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="AB31" s="2" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="32" spans="1:28" ht="409" x14ac:dyDescent="0.2">
+      <c r="A32" s="3" t="s">
         <v>294</v>
       </c>
-      <c r="V31" s="2">
-        <v>1992</v>
-      </c>
-      <c r="X31" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="Z31" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="AA31" s="2" t="s">
-        <v>318</v>
+      <c r="B32" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="I32" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="J32" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="L32" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="M32" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="N32" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="O32" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q32" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="R32" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="S32" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="T32" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="X32" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z32" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="AA32" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="AB32" s="4" t="s">
+        <v>311</v>
       </c>
     </row>
-    <row r="32" spans="1:27" ht="409" x14ac:dyDescent="0.2">
-      <c r="A32" s="3" t="s">
-        <v>295</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>296</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>297</v>
-      </c>
-      <c r="F32" s="3" t="s">
+    <row r="33" spans="1:28" ht="224" x14ac:dyDescent="0.2">
+      <c r="A33" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="I33" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="J33" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="L33" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="M33" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="G32" s="2">
-        <v>2</v>
-      </c>
-      <c r="H32" s="3" t="s">
-        <v>298</v>
-      </c>
-      <c r="I32" s="3" t="s">
-        <v>299</v>
-      </c>
-      <c r="J32" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="L32" s="3" t="s">
-        <v>300</v>
-      </c>
-      <c r="M32" s="3" t="s">
+      <c r="N33" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="O33" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="P33" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="Q33" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="S33" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="T33" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="V33" s="2">
+        <v>1993</v>
+      </c>
+      <c r="X33" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="N32" s="3" t="s">
-        <v>301</v>
-      </c>
-      <c r="O32" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q32" s="3" t="s">
-        <v>302</v>
-      </c>
-      <c r="R32" s="3" t="s">
-        <v>298</v>
-      </c>
-      <c r="S32" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="T32" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="V32" s="2">
-        <v>1998</v>
-      </c>
-      <c r="X32" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="Z32" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="AA32" s="2" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="33" spans="1:27" ht="409" x14ac:dyDescent="0.2">
-      <c r="A33" s="3" t="s">
-        <v>303</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>304</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>296</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>305</v>
-      </c>
-      <c r="H33" s="3" t="s">
-        <v>304</v>
-      </c>
-      <c r="I33" s="3" t="s">
-        <v>306</v>
-      </c>
-      <c r="J33" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="L33" s="3" t="s">
-        <v>307</v>
-      </c>
-      <c r="M33" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="N33" s="3" t="s">
-        <v>308</v>
-      </c>
-      <c r="O33" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q33" s="3" t="s">
+      <c r="Z33" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="AA33" s="2" t="s">
         <v>309</v>
       </c>
-      <c r="R33" s="3" t="s">
-        <v>310</v>
-      </c>
-      <c r="S33" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="T33" s="3" t="s">
-        <v>306</v>
-      </c>
-      <c r="X33" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="Z33" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="AA33" s="2" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="34" spans="1:27" ht="224" x14ac:dyDescent="0.2">
-      <c r="A34" s="3" t="s">
+      <c r="AB33" s="4" t="s">
         <v>311</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>312</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>313</v>
-      </c>
-      <c r="I34" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="J34" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="L34" s="3" t="s">
-        <v>314</v>
-      </c>
-      <c r="M34" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="N34" s="3" t="s">
-        <v>315</v>
-      </c>
-      <c r="O34" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="P34" s="3" t="s">
-        <v>292</v>
-      </c>
-      <c r="Q34" s="3" t="s">
-        <v>316</v>
-      </c>
-      <c r="S34" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="T34" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="V34" s="2">
-        <v>1993</v>
-      </c>
-      <c r="X34" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="Z34" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="AA34" s="2" t="s">
-        <v>318</v>
       </c>
     </row>
   </sheetData>
